--- a/ppa_2302_k1/2024_0810/理论推导.xlsx
+++ b/ppa_2302_k1/2024_0810/理论推导.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
   <si>
     <t>晚</t>
   </si>
@@ -41,64 +42,94 @@
     <t>大SW</t>
   </si>
   <si>
+    <t>温度</t>
+  </si>
+  <si>
+    <t>储热增强,T+</t>
+  </si>
+  <si>
+    <t>风增强,T-</t>
+  </si>
+  <si>
+    <t>阴影,T=</t>
+  </si>
+  <si>
+    <t>风减弱,T+</t>
+  </si>
+  <si>
+    <t>RCI</t>
+  </si>
+  <si>
+    <t>储热增强,RCI+</t>
+  </si>
+  <si>
+    <t>RCI-</t>
+  </si>
+  <si>
+    <t>RCI与BH正相关，与BCR,SW负相关，与ASP正相关（弱）</t>
+  </si>
+  <si>
+    <t>RCD</t>
+  </si>
+  <si>
+    <t>储热增强,RCD+</t>
+  </si>
+  <si>
+    <t>风减弱,RCD-</t>
+  </si>
+  <si>
+    <t>RCD-</t>
+  </si>
+  <si>
+    <t>RCD与BH正相关，与BCR,SW负相关，与ASP正相关（弱）</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>阴影减少,储热+,T+</t>
+  </si>
+  <si>
+    <t>阴影减少,储热+,RCI+</t>
+  </si>
+  <si>
     <t>参考</t>
   </si>
   <si>
     <t>Influence of urban form on the cooling effect of a small urban river</t>
   </si>
   <si>
-    <t>温度</t>
-  </si>
-  <si>
-    <t>储热+</t>
+    <t>Research on the relationship between urban morphology and air temperature based on mobile measurement: A case study in Wuhan, China</t>
+  </si>
+  <si>
+    <t>Effects of urban planning indicators on urban heat island: a case study of pocket parks in high-rise high-density environment</t>
+  </si>
+  <si>
+    <t>绝对湿度</t>
+  </si>
+  <si>
+    <t>风+</t>
   </si>
   <si>
     <t>风-</t>
   </si>
   <si>
-    <t>阴影=</t>
-  </si>
-  <si>
-    <t>风+</t>
-  </si>
-  <si>
-    <t>Research on the relationship between urban morphology and air temperature based on mobile measurement: A case study in Wuhan, China</t>
-  </si>
-  <si>
-    <t>降温</t>
-  </si>
-  <si>
-    <t>储热释放增强，降温+</t>
-  </si>
-  <si>
-    <t>风增强，降温+</t>
-  </si>
-  <si>
-    <t>风减弱，降温-</t>
-  </si>
-  <si>
-    <t>Effects of urban planning indicators on urban heat island: a case study of pocket parks in high-rise high-density environment</t>
-  </si>
-  <si>
-    <t>白</t>
-  </si>
-  <si>
-    <t>储热+【弱】</t>
-  </si>
-  <si>
-    <t>阴影-</t>
-  </si>
-  <si>
-    <t>储热-【弱】</t>
-  </si>
-  <si>
-    <t>阴影+</t>
-  </si>
-  <si>
-    <t>储热释放增强，降温+【弱】</t>
-  </si>
-  <si>
-    <t>储热释放减弱，降温-【弱】</t>
+    <t>相对湿度</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>增湿（绝对湿度）</t>
+  </si>
+  <si>
+    <t>风增强，增湿+</t>
+  </si>
+  <si>
+    <t>风减弱，增湿-</t>
+  </si>
+  <si>
+    <t>增湿（相对湿度）</t>
   </si>
 </sst>
 </file>
@@ -264,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,12 +401,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,63 +702,72 @@
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1261,22 +1295,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="28.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="15.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="24.1818181818182" customWidth="1"/>
     <col min="6" max="6" width="28.6363636363636" customWidth="1"/>
     <col min="7" max="7" width="15.1818181818182" customWidth="1"/>
     <col min="11" max="11" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1292,102 +1327,368 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
